--- a/documentação/especificação do analitycs.XLSX
+++ b/documentação/especificação do analitycs.XLSX
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Downloads\faculdade\P.I\Git Projeto\sprint 2\Projeto-Luminous-v-\documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Downloads\faculdade\P.I\Git Projeto\sprint 2\Projeto-Luminous-v2\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E6A14-6BF1-4D6B-9229-600E44408A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC26A4-6530-48DF-9014-F1C90AF62A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,8 +73,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +103,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,7 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,7 +434,7 @@
   <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,10 +445,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">

--- a/documentação/especificação do analitycs.XLSX
+++ b/documentação/especificação do analitycs.XLSX
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Downloads\faculdade\P.I\Git Projeto\sprint 2\Projeto-Luminous-v2\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC26A4-6530-48DF-9014-F1C90AF62A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{BEEC26A4-6530-48DF-9014-F1C90AF62A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90B912B4-4CEA-4284-ACF5-52FA806AC117}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>1/4</t>
   </si>
   <si>
     <t>recomendado</t>
@@ -45,14 +48,20 @@
     <t>Max</t>
   </si>
   <si>
-    <t>1/4</t>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>lumens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,25 +105,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor rgb="FF595959"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0D0D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,24 +140,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,54 +443,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1">
+        <f>MIN(I3:I19)</f>
+        <v>500</v>
+      </c>
+      <c r="C3" s="4">
+        <f>_xlfn.QUARTILE.EXC(I3:I18,1)</f>
+        <v>631.25</v>
+      </c>
+      <c r="D3" s="4">
+        <f>AVERAGE(I3:I19)</f>
+        <v>715.11764705882354</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MEDIAN(I3:I19)</f>
+        <v>700</v>
+      </c>
+      <c r="F3" s="1">
+        <f>_xlfn.QUARTILE.EXC(I3:I19,3)</f>
+        <v>800</v>
+      </c>
+      <c r="G3" s="1">
+        <f>MAX(I3:I19)</f>
+        <v>1000</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="I5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>500</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="8" spans="2:9">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>625</v>
       </c>
-      <c r="D3" s="1">
+    </row>
+    <row r="9" spans="2:9">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
         <v>750</v>
       </c>
-      <c r="E3" s="1">
-        <v>875</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/documentação/especificação do analitycs.XLSX
+++ b/documentação/especificação do analitycs.XLSX
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Downloads\faculdade\P.I\Git Projeto\sprint 2\Projeto-Luminous-v2\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{BEEC26A4-6530-48DF-9014-F1C90AF62A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90B912B4-4CEA-4284-ACF5-52FA806AC117}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2420AB59-197E-4900-B1A8-56B4749D2141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Min</t>
   </si>
@@ -53,6 +53,9 @@
   <si>
     <t>lumens</t>
   </si>
+  <si>
+    <t>3/4</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0D0D0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,19 +157,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,50 +458,50 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>MIN(I3:I19)</f>
         <v>500</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>_xlfn.QUARTILE.EXC(I3:I18,1)</f>
         <v>631.25</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>AVERAGE(I3:I19)</f>
         <v>715.11764705882354</v>
       </c>
@@ -505,138 +517,138 @@
         <f>MAX(I3:I19)</f>
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="H4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="H5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="H6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="H7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="H8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="H9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="H10">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>872</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="H11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="H12">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="H13">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="H14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="7">
         <v>11</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="H15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="7">
         <v>13</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="H16">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
-      <c r="H17">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="8:9">
-      <c r="H18">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
-      <c r="H19">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="7">
         <v>17</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>600</v>
       </c>
     </row>
